--- a/biology/Botanique/Cordaitaceae/Cordaitaceae.xlsx
+++ b/biology/Botanique/Cordaitaceae/Cordaitaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cordaitaceae sont une famille éteinte de plantes appartenant au groupe des gymnospermes fossiles et à l'ordre des Cordaitales. 
 Ces plantes ont vécu au Carbonifère.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur nom dérive du genre Cordaites créé par Franz Unger en 1850 en hommage au médecin, botaniste et mycologue tchèque August Carl Joseph Corda[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur nom dérive du genre Cordaites créé par Franz Unger en 1850 en hommage au médecin, botaniste et mycologue tchèque August Carl Joseph Corda.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 octobre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 octobre 2018) :
 † Cardiocarpus
 † Cordaicarpus
 † Cordaites Unger, 1850
 † Samaropsis Goeppert, 1864
-Selon Paleobiology Database                   (30 octobre 2018)[4] :
+Selon Paleobiology Database                   (30 octobre 2018) :
 † Artisia Sternberg, 1838
 † Cordaicarpon</t>
         </is>
